--- a/data/pca/factorExposure/factorExposure_2019-03-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1209414446740162</v>
+        <v>0.07598186050979712</v>
       </c>
       <c r="C2">
-        <v>-0.01084781128296139</v>
+        <v>-0.03464155619635648</v>
       </c>
       <c r="D2">
-        <v>0.04713286111183441</v>
+        <v>-0.01420515222523796</v>
       </c>
       <c r="E2">
-        <v>-0.1275365136209903</v>
+        <v>0.03947510482024699</v>
       </c>
       <c r="F2">
-        <v>-0.1101826863828402</v>
+        <v>-0.141424310505088</v>
       </c>
       <c r="G2">
-        <v>0.01782035141950311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1049224262360852</v>
+      </c>
+      <c r="H2">
+        <v>-0.06031099090466226</v>
+      </c>
+      <c r="I2">
+        <v>-0.02922398767967671</v>
+      </c>
+      <c r="J2">
+        <v>0.06782408371368717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2152705912544464</v>
+        <v>0.1696608217922485</v>
       </c>
       <c r="C3">
-        <v>-0.1419249247749813</v>
+        <v>-0.0939040172897876</v>
       </c>
       <c r="D3">
-        <v>-0.04983366796904144</v>
+        <v>0.03002520974223163</v>
       </c>
       <c r="E3">
-        <v>-0.3395707897706955</v>
+        <v>-0.01142415556439266</v>
       </c>
       <c r="F3">
-        <v>-0.02975142824247707</v>
+        <v>-0.3725717295839812</v>
       </c>
       <c r="G3">
-        <v>0.1231313721617546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.093133913914869</v>
+      </c>
+      <c r="H3">
+        <v>-0.282695470304354</v>
+      </c>
+      <c r="I3">
+        <v>-0.1817326522618129</v>
+      </c>
+      <c r="J3">
+        <v>0.241904835180843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09346635830208073</v>
+        <v>0.07421158829210937</v>
       </c>
       <c r="C4">
-        <v>-0.04306907885069042</v>
+        <v>-0.03799771428874944</v>
       </c>
       <c r="D4">
-        <v>0.02323291184937813</v>
+        <v>0.02527035928883151</v>
       </c>
       <c r="E4">
-        <v>-0.0764236197142678</v>
+        <v>0.03654361524581117</v>
       </c>
       <c r="F4">
-        <v>-0.03679040341368878</v>
+        <v>-0.08154193226901642</v>
       </c>
       <c r="G4">
-        <v>0.02563013571908548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04678281685630016</v>
+      </c>
+      <c r="H4">
+        <v>-0.02375543491092055</v>
+      </c>
+      <c r="I4">
+        <v>-0.03127407732955981</v>
+      </c>
+      <c r="J4">
+        <v>0.058838606380322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01732647125448819</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.009507522389333752</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009283339529471392</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00563447041841376</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003905231912290168</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0209273314860039</v>
+      </c>
+      <c r="H6">
+        <v>0.00125775431671349</v>
+      </c>
+      <c r="I6">
+        <v>0.0133804533024679</v>
+      </c>
+      <c r="J6">
+        <v>0.001157944094336643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04284326498305155</v>
+        <v>0.03522989198821756</v>
       </c>
       <c r="C7">
-        <v>-0.01466047695996624</v>
+        <v>-0.006644948738715009</v>
       </c>
       <c r="D7">
-        <v>0.03343454466986799</v>
+        <v>0.03953726850269117</v>
       </c>
       <c r="E7">
-        <v>-0.07754873723796883</v>
+        <v>0.02819756178262406</v>
       </c>
       <c r="F7">
-        <v>0.05351072700020702</v>
+        <v>-0.0553087858090359</v>
       </c>
       <c r="G7">
-        <v>-0.004288636422938541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.00655898187950101</v>
+      </c>
+      <c r="H7">
+        <v>-0.04553821926277182</v>
+      </c>
+      <c r="I7">
+        <v>-0.000457080277400872</v>
+      </c>
+      <c r="J7">
+        <v>0.05611154549870317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04309984540407936</v>
+        <v>0.03046418064250352</v>
       </c>
       <c r="C8">
-        <v>-0.05377521983705531</v>
+        <v>-0.04376226440441144</v>
       </c>
       <c r="D8">
-        <v>0.002062178232949791</v>
+        <v>0.02708307759363492</v>
       </c>
       <c r="E8">
-        <v>-0.07445919630875972</v>
+        <v>0.01698296573792917</v>
       </c>
       <c r="F8">
-        <v>-0.007758105926473089</v>
+        <v>-0.07247977684551572</v>
       </c>
       <c r="G8">
-        <v>0.01567595233585873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02168473076113775</v>
+      </c>
+      <c r="H8">
+        <v>-0.04496592294056643</v>
+      </c>
+      <c r="I8">
+        <v>-0.03441946421103887</v>
+      </c>
+      <c r="J8">
+        <v>0.06183587530422187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08302241032453599</v>
+        <v>0.0612427576590288</v>
       </c>
       <c r="C9">
-        <v>-0.04053677470165439</v>
+        <v>-0.03433856366788421</v>
       </c>
       <c r="D9">
-        <v>0.03195099965422142</v>
+        <v>0.02928715035456125</v>
       </c>
       <c r="E9">
-        <v>-0.06289590735368487</v>
+        <v>0.03191947524231486</v>
       </c>
       <c r="F9">
-        <v>-0.0247557641830662</v>
+        <v>-0.0824422499620098</v>
       </c>
       <c r="G9">
-        <v>0.04366281906408556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04331233893123824</v>
+      </c>
+      <c r="H9">
+        <v>-0.02140946852452026</v>
+      </c>
+      <c r="I9">
+        <v>-0.01359306077791111</v>
+      </c>
+      <c r="J9">
+        <v>0.03701566863031273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01585995090948714</v>
+        <v>0.0272372048277421</v>
       </c>
       <c r="C10">
-        <v>0.1595956196134497</v>
+        <v>0.1464083003482891</v>
       </c>
       <c r="D10">
-        <v>-0.02980649289468714</v>
+        <v>-0.05616889779173659</v>
       </c>
       <c r="E10">
-        <v>-0.07428016756903819</v>
+        <v>-0.02531659458790709</v>
       </c>
       <c r="F10">
-        <v>-0.01335002405272378</v>
+        <v>-0.06684398062290374</v>
       </c>
       <c r="G10">
-        <v>-0.02237130067314835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02194923893944878</v>
+      </c>
+      <c r="H10">
+        <v>-0.0007327508201068739</v>
+      </c>
+      <c r="I10">
+        <v>-0.1085842824000344</v>
+      </c>
+      <c r="J10">
+        <v>-0.00388086482368718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05843606198932146</v>
+        <v>0.05025187334723134</v>
       </c>
       <c r="C11">
-        <v>-0.0145908505767253</v>
+        <v>-0.02827302067864325</v>
       </c>
       <c r="D11">
-        <v>-0.00738139872758159</v>
+        <v>0.001075625317561693</v>
       </c>
       <c r="E11">
-        <v>-0.04385990150174846</v>
+        <v>0.008165721158936646</v>
       </c>
       <c r="F11">
-        <v>-0.003417584851240552</v>
+        <v>-0.04017786527905686</v>
       </c>
       <c r="G11">
-        <v>-0.02129264109027052</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006867770674597553</v>
+      </c>
+      <c r="H11">
+        <v>-0.001353375439461274</v>
+      </c>
+      <c r="I11">
+        <v>0.01063478474483847</v>
+      </c>
+      <c r="J11">
+        <v>0.04528020345720744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04540414925790378</v>
+        <v>0.04732262764111549</v>
       </c>
       <c r="C12">
-        <v>-0.0184201408400577</v>
+        <v>-0.0220425601326677</v>
       </c>
       <c r="D12">
-        <v>-0.003224318159846011</v>
+        <v>0.01061738759715577</v>
       </c>
       <c r="E12">
-        <v>-0.03049555460410434</v>
+        <v>0.01092869688765579</v>
       </c>
       <c r="F12">
-        <v>0.008287646957209611</v>
+        <v>-0.0155934614397762</v>
       </c>
       <c r="G12">
-        <v>0.00231019741482681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002185559667118114</v>
+      </c>
+      <c r="H12">
+        <v>-0.004041038628714192</v>
+      </c>
+      <c r="I12">
+        <v>0.006434077158091582</v>
+      </c>
+      <c r="J12">
+        <v>0.0312375617846829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06373488180900413</v>
+        <v>0.04222071008454315</v>
       </c>
       <c r="C13">
-        <v>-0.02785130454445319</v>
+        <v>-0.0296527125327935</v>
       </c>
       <c r="D13">
-        <v>-0.01048780787221066</v>
+        <v>-0.007043518947775344</v>
       </c>
       <c r="E13">
-        <v>-0.1125896522408153</v>
+        <v>0.008288263204840978</v>
       </c>
       <c r="F13">
-        <v>-0.01272352517812736</v>
+        <v>-0.106297419781735</v>
       </c>
       <c r="G13">
-        <v>-0.001775183586950235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02131355774209133</v>
+      </c>
+      <c r="H13">
+        <v>-0.04642877964688481</v>
+      </c>
+      <c r="I13">
+        <v>-0.005943684365151519</v>
+      </c>
+      <c r="J13">
+        <v>0.05780102663427392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03406783956763549</v>
+        <v>0.02809113284203848</v>
       </c>
       <c r="C14">
-        <v>-0.019854779778462</v>
+        <v>-0.01713997045973082</v>
       </c>
       <c r="D14">
-        <v>0.02502289532756886</v>
+        <v>0.01084304664081627</v>
       </c>
       <c r="E14">
-        <v>-0.03321938260111806</v>
+        <v>0.02450448259729835</v>
       </c>
       <c r="F14">
-        <v>-0.01060519690761791</v>
+        <v>-0.04101921106413732</v>
       </c>
       <c r="G14">
-        <v>-0.03021532680608475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02901125632768235</v>
+      </c>
+      <c r="H14">
+        <v>-0.05110164050663354</v>
+      </c>
+      <c r="I14">
+        <v>-0.008526752911995113</v>
+      </c>
+      <c r="J14">
+        <v>0.01504889397280279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04731981345915299</v>
+        <v>0.04434529248378396</v>
       </c>
       <c r="C16">
-        <v>-0.02898132197984039</v>
+        <v>-0.03397014827166841</v>
       </c>
       <c r="D16">
-        <v>-0.01086107663814808</v>
+        <v>0.009293687847314462</v>
       </c>
       <c r="E16">
-        <v>-0.03345767700852098</v>
+        <v>0.004951855688570725</v>
       </c>
       <c r="F16">
-        <v>0.01012997583849384</v>
+        <v>-0.03393181788885875</v>
       </c>
       <c r="G16">
-        <v>-0.0077366283487012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005481666778831232</v>
+      </c>
+      <c r="H16">
+        <v>-0.008631413998179203</v>
+      </c>
+      <c r="I16">
+        <v>0.008870712662311203</v>
+      </c>
+      <c r="J16">
+        <v>0.03844776877051429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05193884189894334</v>
+        <v>0.04842113859803619</v>
       </c>
       <c r="C19">
-        <v>-0.03922159400261399</v>
+        <v>-0.04112953317380171</v>
       </c>
       <c r="D19">
-        <v>-0.007631956052241857</v>
+        <v>0.0111473488227621</v>
       </c>
       <c r="E19">
-        <v>-0.07888809297794576</v>
+        <v>0.0166988548473937</v>
       </c>
       <c r="F19">
-        <v>0.01952681383476968</v>
+        <v>-0.08017905788931305</v>
       </c>
       <c r="G19">
-        <v>-0.01993802829891127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01041075427937665</v>
+      </c>
+      <c r="H19">
+        <v>-0.08222498207766629</v>
+      </c>
+      <c r="I19">
+        <v>-0.03402185246623321</v>
+      </c>
+      <c r="J19">
+        <v>0.05001924026013203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03589609928613186</v>
+        <v>0.01870851839723636</v>
       </c>
       <c r="C20">
-        <v>-0.04359951767299879</v>
+        <v>-0.02820153069158776</v>
       </c>
       <c r="D20">
-        <v>0.01065641833060746</v>
+        <v>0.01631256612757151</v>
       </c>
       <c r="E20">
-        <v>-0.06945463875866438</v>
+        <v>0.01831078472512476</v>
       </c>
       <c r="F20">
-        <v>0.01167145599546494</v>
+        <v>-0.0672276963988518</v>
       </c>
       <c r="G20">
-        <v>-0.009501919223959562</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01414661744264632</v>
+      </c>
+      <c r="H20">
+        <v>-0.06890555259459244</v>
+      </c>
+      <c r="I20">
+        <v>-0.01973313614338328</v>
+      </c>
+      <c r="J20">
+        <v>0.07915532168144344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03928707424584511</v>
+        <v>0.02601334047066844</v>
       </c>
       <c r="C21">
-        <v>-0.03765534049043259</v>
+        <v>-0.02729470244436579</v>
       </c>
       <c r="D21">
-        <v>0.003031859399756214</v>
+        <v>0.02325854755868783</v>
       </c>
       <c r="E21">
-        <v>-0.1020159109976827</v>
+        <v>0.006844302941668742</v>
       </c>
       <c r="F21">
-        <v>-0.04678740665827556</v>
+        <v>-0.07864831276667426</v>
       </c>
       <c r="G21">
-        <v>-0.02395202125249841</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03527726271197686</v>
+      </c>
+      <c r="H21">
+        <v>-0.02336463677776689</v>
+      </c>
+      <c r="I21">
+        <v>0.01256103136447207</v>
+      </c>
+      <c r="J21">
+        <v>0.02727963214313245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05118655900638264</v>
+        <v>0.04356883593078554</v>
       </c>
       <c r="C24">
-        <v>-0.02090862011492215</v>
+        <v>-0.02241723152405046</v>
       </c>
       <c r="D24">
-        <v>-0.003377056117644394</v>
+        <v>0.005369139878303358</v>
       </c>
       <c r="E24">
-        <v>-0.04625206577946876</v>
+        <v>0.01020894847284988</v>
       </c>
       <c r="F24">
-        <v>0.008570311157055199</v>
+        <v>-0.04105287412495897</v>
       </c>
       <c r="G24">
-        <v>0.0004788352646703525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004666409425434796</v>
+      </c>
+      <c r="H24">
+        <v>-0.008099566914788758</v>
+      </c>
+      <c r="I24">
+        <v>0.00635342574185787</v>
+      </c>
+      <c r="J24">
+        <v>0.04426383436040969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05173997331486393</v>
+        <v>0.04655270739794515</v>
       </c>
       <c r="C25">
-        <v>-0.011175382598232</v>
+        <v>-0.02137245499697711</v>
       </c>
       <c r="D25">
-        <v>-0.004524284263202176</v>
+        <v>0.003724341589162979</v>
       </c>
       <c r="E25">
-        <v>-0.04256731480101339</v>
+        <v>0.007957591077792835</v>
       </c>
       <c r="F25">
-        <v>-0.00485771887008901</v>
+        <v>-0.04422697587171604</v>
       </c>
       <c r="G25">
-        <v>-0.008680114055761617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.004702160967764713</v>
+      </c>
+      <c r="H25">
+        <v>0.0003655263592130516</v>
+      </c>
+      <c r="I25">
+        <v>0.01193224513795086</v>
+      </c>
+      <c r="J25">
+        <v>0.03776383301055204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01797553613301434</v>
+        <v>0.01630357420517928</v>
       </c>
       <c r="C26">
-        <v>-0.02883212211339045</v>
+        <v>-0.02397737574125453</v>
       </c>
       <c r="D26">
-        <v>0.00088472009471996</v>
+        <v>0.00310763368702944</v>
       </c>
       <c r="E26">
-        <v>-0.03942329939890585</v>
+        <v>-0.0007103342542063609</v>
       </c>
       <c r="F26">
-        <v>-0.01751493042352119</v>
+        <v>-0.0478809883048212</v>
       </c>
       <c r="G26">
-        <v>-0.02502646509074254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02192429535543507</v>
+      </c>
+      <c r="H26">
+        <v>-0.03246964737966775</v>
+      </c>
+      <c r="I26">
+        <v>0.006281594902363938</v>
+      </c>
+      <c r="J26">
+        <v>0.03719431951471604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1143968918849023</v>
+        <v>0.07740089271251589</v>
       </c>
       <c r="C27">
-        <v>-0.035121526370199</v>
+        <v>-0.02741846303475501</v>
       </c>
       <c r="D27">
-        <v>0.01981161270269324</v>
+        <v>0.01164745441761538</v>
       </c>
       <c r="E27">
-        <v>-0.09689281426004251</v>
+        <v>0.03307935570769253</v>
       </c>
       <c r="F27">
-        <v>-0.006979141816233663</v>
+        <v>-0.06902794921399957</v>
       </c>
       <c r="G27">
-        <v>0.004190070456965041</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01704612547544838</v>
+      </c>
+      <c r="H27">
+        <v>-0.01288224542102654</v>
+      </c>
+      <c r="I27">
+        <v>-0.02463206636381745</v>
+      </c>
+      <c r="J27">
+        <v>0.04264370650830256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.01153163058089711</v>
+        <v>0.04210912968965069</v>
       </c>
       <c r="C28">
-        <v>0.2421374212983969</v>
+        <v>0.2247793155494128</v>
       </c>
       <c r="D28">
-        <v>-0.02802932507328018</v>
+        <v>-0.07553894738815876</v>
       </c>
       <c r="E28">
-        <v>-0.0529162426231332</v>
+        <v>-0.03944025984475777</v>
       </c>
       <c r="F28">
-        <v>-0.03274532375800525</v>
+        <v>-0.05696843974624</v>
       </c>
       <c r="G28">
-        <v>-0.01187166652523139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02426302605628557</v>
+      </c>
+      <c r="H28">
+        <v>0.004017895796511534</v>
+      </c>
+      <c r="I28">
+        <v>-0.1562996141004979</v>
+      </c>
+      <c r="J28">
+        <v>0.001621224831297801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.0234007762263987</v>
+        <v>0.02229547507963503</v>
       </c>
       <c r="C29">
-        <v>-0.02489678528308074</v>
+        <v>-0.01661204423115208</v>
       </c>
       <c r="D29">
-        <v>0.0287378538435586</v>
+        <v>0.01557262669741499</v>
       </c>
       <c r="E29">
-        <v>-0.0346271163508653</v>
+        <v>0.02511028237131342</v>
       </c>
       <c r="F29">
-        <v>-0.01436105472100585</v>
+        <v>-0.03569503416674978</v>
       </c>
       <c r="G29">
-        <v>-0.02154924460391216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03020055092030575</v>
+      </c>
+      <c r="H29">
+        <v>-0.04910589323848426</v>
+      </c>
+      <c r="I29">
+        <v>-0.002548589305239265</v>
+      </c>
+      <c r="J29">
+        <v>0.008921554059710176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1148702537346265</v>
+        <v>0.09140320130605047</v>
       </c>
       <c r="C30">
-        <v>-0.01993578621665729</v>
+        <v>-0.05600050563953586</v>
       </c>
       <c r="D30">
-        <v>0.02238720638472554</v>
+        <v>-0.0231722309205424</v>
       </c>
       <c r="E30">
-        <v>-0.106284881721085</v>
+        <v>0.02910643618219969</v>
       </c>
       <c r="F30">
-        <v>0.0123913050532469</v>
+        <v>-0.1031605053048645</v>
       </c>
       <c r="G30">
-        <v>-0.04134714557370935</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0137318566186536</v>
+      </c>
+      <c r="H30">
+        <v>-0.02153725282302956</v>
+      </c>
+      <c r="I30">
+        <v>0.01237203806757258</v>
+      </c>
+      <c r="J30">
+        <v>0.03229956711821944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06559495600435486</v>
+        <v>0.06287386843985983</v>
       </c>
       <c r="C31">
-        <v>-0.01856928335631352</v>
+        <v>-0.02418545503442167</v>
       </c>
       <c r="D31">
-        <v>0.01676412515501149</v>
+        <v>-0.005314150715956342</v>
       </c>
       <c r="E31">
-        <v>0.01953700997262588</v>
+        <v>0.02104150541398469</v>
       </c>
       <c r="F31">
-        <v>-0.007948337503892349</v>
+        <v>-0.003246729309147206</v>
       </c>
       <c r="G31">
-        <v>-0.05891487705634999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04113349313447786</v>
+      </c>
+      <c r="H31">
+        <v>-0.03028117870120534</v>
+      </c>
+      <c r="I31">
+        <v>-0.01322892817721689</v>
+      </c>
+      <c r="J31">
+        <v>0.01444191575363065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06519004936857122</v>
+        <v>0.04438410704120381</v>
       </c>
       <c r="C32">
-        <v>-0.03668030831569087</v>
+        <v>-0.04304504026605099</v>
       </c>
       <c r="D32">
-        <v>0.007521548622796867</v>
+        <v>0.0289720530707013</v>
       </c>
       <c r="E32">
-        <v>-0.1059142412749104</v>
+        <v>0.02741523521324945</v>
       </c>
       <c r="F32">
-        <v>0.0144839526827096</v>
+        <v>-0.08752101499778471</v>
       </c>
       <c r="G32">
-        <v>-0.02862484945729406</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01304212134879211</v>
+      </c>
+      <c r="H32">
+        <v>-0.03963833286563698</v>
+      </c>
+      <c r="I32">
+        <v>-0.02322041401471487</v>
+      </c>
+      <c r="J32">
+        <v>0.04844895311361604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.0678852306757725</v>
+        <v>0.05823469002508826</v>
       </c>
       <c r="C33">
-        <v>-0.04430485372541709</v>
+        <v>-0.05424954183138436</v>
       </c>
       <c r="D33">
-        <v>0.00595787145008776</v>
+        <v>-0.002882649176144754</v>
       </c>
       <c r="E33">
-        <v>-0.07533241748026004</v>
+        <v>0.009792487681504532</v>
       </c>
       <c r="F33">
-        <v>-0.04360228319366041</v>
+        <v>-0.07785031744149443</v>
       </c>
       <c r="G33">
-        <v>-0.01676617576976056</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0363691928556415</v>
+      </c>
+      <c r="H33">
+        <v>-0.03745996429113856</v>
+      </c>
+      <c r="I33">
+        <v>0.01226687752407937</v>
+      </c>
+      <c r="J33">
+        <v>0.05290523062023176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04822604379758051</v>
+        <v>0.04540370247393749</v>
       </c>
       <c r="C34">
-        <v>-0.02172646618800389</v>
+        <v>-0.02857127010674987</v>
       </c>
       <c r="D34">
-        <v>0.0006399622673162409</v>
+        <v>0.01252871393127376</v>
       </c>
       <c r="E34">
-        <v>-0.02806476442328396</v>
+        <v>0.01478985209639857</v>
       </c>
       <c r="F34">
-        <v>0.008435681925102167</v>
+        <v>-0.03156782304709094</v>
       </c>
       <c r="G34">
-        <v>-0.005479956972644141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-8.366993035749618e-05</v>
+      </c>
+      <c r="H34">
+        <v>-0.01164097346196249</v>
+      </c>
+      <c r="I34">
+        <v>0.007080978634796329</v>
+      </c>
+      <c r="J34">
+        <v>0.03453671102170007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01323517017201338</v>
+        <v>0.01617053142958306</v>
       </c>
       <c r="C36">
-        <v>0.002101121023448632</v>
+        <v>-0.0003143200540071169</v>
       </c>
       <c r="D36">
-        <v>0.006192711664296142</v>
+        <v>0.004736313686258568</v>
       </c>
       <c r="E36">
-        <v>-0.02591473354337499</v>
+        <v>0.009347263268394699</v>
       </c>
       <c r="F36">
-        <v>-0.008369839201276522</v>
+        <v>-0.02811959596996836</v>
       </c>
       <c r="G36">
-        <v>-0.01854168941504793</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02391372178299613</v>
+      </c>
+      <c r="H36">
+        <v>-0.02760003315218524</v>
+      </c>
+      <c r="I36">
+        <v>0.003967493713947908</v>
+      </c>
+      <c r="J36">
+        <v>0.003308725216658364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05186315808331839</v>
+        <v>0.03651721834992558</v>
       </c>
       <c r="C38">
-        <v>-0.01944149092761764</v>
+        <v>-0.01346684952040619</v>
       </c>
       <c r="D38">
-        <v>0.02665026658784171</v>
+        <v>0.006541990385064039</v>
       </c>
       <c r="E38">
-        <v>-0.03004707132164122</v>
+        <v>0.01203918278351183</v>
       </c>
       <c r="F38">
-        <v>-0.006008282201194315</v>
+        <v>-0.04984471208790935</v>
       </c>
       <c r="G38">
-        <v>0.02002379806028238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02856917895290037</v>
+      </c>
+      <c r="H38">
+        <v>-0.01296993935339003</v>
+      </c>
+      <c r="I38">
+        <v>0.01386539662032465</v>
+      </c>
+      <c r="J38">
+        <v>0.001832073340397254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07398672151198163</v>
+        <v>0.05750987269326777</v>
       </c>
       <c r="C39">
-        <v>-0.01892790928026955</v>
+        <v>-0.04075819680592034</v>
       </c>
       <c r="D39">
-        <v>0.002102627680180278</v>
+        <v>0.006910554668055634</v>
       </c>
       <c r="E39">
-        <v>-0.04288961396084381</v>
+        <v>0.0164204011233174</v>
       </c>
       <c r="F39">
-        <v>-0.01375258709464704</v>
+        <v>-0.05487794076197856</v>
       </c>
       <c r="G39">
-        <v>-0.009073994372144343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01690731511579699</v>
+      </c>
+      <c r="H39">
+        <v>-0.00108981486687553</v>
+      </c>
+      <c r="I39">
+        <v>0.02984568476576478</v>
+      </c>
+      <c r="J39">
+        <v>0.04762356476028928</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07631409624646926</v>
+        <v>0.05705334943896734</v>
       </c>
       <c r="C40">
-        <v>-0.0437811790475084</v>
+        <v>-0.04525316566286353</v>
       </c>
       <c r="D40">
-        <v>0.004708438540754784</v>
+        <v>-0.008226829407794317</v>
       </c>
       <c r="E40">
-        <v>-0.1083158547087195</v>
+        <v>0.02238821948065704</v>
       </c>
       <c r="F40">
-        <v>-0.02575497933751056</v>
+        <v>-0.09544637808586294</v>
       </c>
       <c r="G40">
-        <v>0.03729338444073373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02288286313562317</v>
+      </c>
+      <c r="H40">
+        <v>-0.05331322554073174</v>
+      </c>
+      <c r="I40">
+        <v>-0.01444651821080583</v>
+      </c>
+      <c r="J40">
+        <v>0.1171852656722434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.003309453326636346</v>
+        <v>0.003560036360795066</v>
       </c>
       <c r="C41">
-        <v>-0.0175820552634297</v>
+        <v>-0.01168544419630509</v>
       </c>
       <c r="D41">
-        <v>0.0248623525492117</v>
+        <v>0.004514713864738402</v>
       </c>
       <c r="E41">
-        <v>-0.01353010632180189</v>
+        <v>0.007696953057830691</v>
       </c>
       <c r="F41">
-        <v>-0.02883563778475626</v>
+        <v>-0.01470539473397248</v>
       </c>
       <c r="G41">
-        <v>-0.02977848753392239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03660205738633636</v>
+      </c>
+      <c r="H41">
+        <v>-0.03141457624370114</v>
+      </c>
+      <c r="I41">
+        <v>-0.02220063650935756</v>
+      </c>
+      <c r="J41">
+        <v>0.01124567793896091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1416617293388817</v>
+        <v>0.2247648837153254</v>
       </c>
       <c r="C42">
-        <v>-0.1970981974338584</v>
+        <v>-0.2013580029934613</v>
       </c>
       <c r="D42">
-        <v>-0.9293085205694083</v>
+        <v>0.006487859942496785</v>
       </c>
       <c r="E42">
-        <v>0.1222409753500748</v>
+        <v>-0.9268058301010635</v>
       </c>
       <c r="F42">
-        <v>0.03944394245576827</v>
+        <v>0.1480619381507664</v>
       </c>
       <c r="G42">
-        <v>-0.0903239293272544</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.001312860717257344</v>
+      </c>
+      <c r="H42">
+        <v>0.001973862180981848</v>
+      </c>
+      <c r="I42">
+        <v>-0.04571135010896223</v>
+      </c>
+      <c r="J42">
+        <v>0.02994273958618249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.002917663529914734</v>
+        <v>0.006220602805347655</v>
       </c>
       <c r="C43">
-        <v>-0.02050439155606468</v>
+        <v>-0.01466494276863805</v>
       </c>
       <c r="D43">
-        <v>0.0153618493672509</v>
+        <v>0.002538296719826806</v>
       </c>
       <c r="E43">
-        <v>-0.03744081982879422</v>
+        <v>0.007528380072340936</v>
       </c>
       <c r="F43">
-        <v>-0.007538951326963567</v>
+        <v>-0.02918242113141342</v>
       </c>
       <c r="G43">
-        <v>-0.02202780776698105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02144257722508039</v>
+      </c>
+      <c r="H43">
+        <v>-0.03150720583987363</v>
+      </c>
+      <c r="I43">
+        <v>-0.01280563004725235</v>
+      </c>
+      <c r="J43">
+        <v>0.01993181582887345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.03881051343580833</v>
+        <v>0.02927741988383343</v>
       </c>
       <c r="C44">
-        <v>-0.05271463200165525</v>
+        <v>-0.04035665066091561</v>
       </c>
       <c r="D44">
-        <v>0.009689100626649915</v>
+        <v>0.01475349261575515</v>
       </c>
       <c r="E44">
-        <v>-0.1276040061983164</v>
+        <v>0.008704687317144142</v>
       </c>
       <c r="F44">
-        <v>-0.08514672289251699</v>
+        <v>-0.1212451439537898</v>
       </c>
       <c r="G44">
-        <v>-0.03170416550119078</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0617608035802879</v>
+      </c>
+      <c r="H44">
+        <v>-0.1031968071740913</v>
+      </c>
+      <c r="I44">
+        <v>-0.01933498738590602</v>
+      </c>
+      <c r="J44">
+        <v>0.03021355060877693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02790229220485463</v>
+        <v>0.02550357325223443</v>
       </c>
       <c r="C46">
-        <v>-0.02497197475531742</v>
+        <v>-0.03474242118810872</v>
       </c>
       <c r="D46">
-        <v>0.02872300505031646</v>
+        <v>0.008617196480916909</v>
       </c>
       <c r="E46">
-        <v>-0.03376552806323155</v>
+        <v>0.0267160922848985</v>
       </c>
       <c r="F46">
-        <v>-0.02520760441680463</v>
+        <v>-0.04819233836355057</v>
       </c>
       <c r="G46">
-        <v>-0.02987701228930963</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02697622043521834</v>
+      </c>
+      <c r="H46">
+        <v>-0.05071754765619573</v>
+      </c>
+      <c r="I46">
+        <v>-0.0009659577509090422</v>
+      </c>
+      <c r="J46">
+        <v>0.01977684853332809</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08944962779833315</v>
+        <v>0.0913785124374014</v>
       </c>
       <c r="C47">
-        <v>-0.01472685978921333</v>
+        <v>-0.01831870738110275</v>
       </c>
       <c r="D47">
-        <v>0.01642536215476697</v>
+        <v>-0.001940706080335973</v>
       </c>
       <c r="E47">
-        <v>0.01918682224243877</v>
+        <v>0.02470003149383608</v>
       </c>
       <c r="F47">
-        <v>-0.01025775934899868</v>
+        <v>0.01021641114063448</v>
       </c>
       <c r="G47">
-        <v>-0.02789980530400193</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04207566810877652</v>
+      </c>
+      <c r="H47">
+        <v>-0.0536226465439965</v>
+      </c>
+      <c r="I47">
+        <v>-0.01989077462403658</v>
+      </c>
+      <c r="J47">
+        <v>0.02598767229862787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01820735744582034</v>
+        <v>0.01890371794136384</v>
       </c>
       <c r="C48">
-        <v>-0.02386603510527836</v>
+        <v>-0.01855658429130593</v>
       </c>
       <c r="D48">
-        <v>0.0130419504047074</v>
+        <v>0.007421415300223884</v>
       </c>
       <c r="E48">
-        <v>-0.03116881614500124</v>
+        <v>0.01259711554220833</v>
       </c>
       <c r="F48">
-        <v>-0.009762051283795828</v>
+        <v>-0.03078293471698113</v>
       </c>
       <c r="G48">
-        <v>-0.008964908062583014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0156632771152437</v>
+      </c>
+      <c r="H48">
+        <v>-0.02105754979240139</v>
+      </c>
+      <c r="I48">
+        <v>-0.01167549660717894</v>
+      </c>
+      <c r="J48">
+        <v>0.01395431224734891</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.09233127839824287</v>
+        <v>0.09007252638789391</v>
       </c>
       <c r="C50">
-        <v>-0.04354386805260779</v>
+        <v>-0.03492983641657792</v>
       </c>
       <c r="D50">
-        <v>0.02808194314098627</v>
+        <v>0.02059973514281743</v>
       </c>
       <c r="E50">
-        <v>0.01831069030375179</v>
+        <v>0.02368023698491397</v>
       </c>
       <c r="F50">
-        <v>0.007852210157800035</v>
+        <v>0.004168444655306741</v>
       </c>
       <c r="G50">
-        <v>-0.04313016827479067</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0005729632570619312</v>
+      </c>
+      <c r="H50">
+        <v>-0.0377744425376648</v>
+      </c>
+      <c r="I50">
+        <v>0.004449614222075384</v>
+      </c>
+      <c r="J50">
+        <v>0.01030319941798682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.05588035007033555</v>
+        <v>0.03951789473819318</v>
       </c>
       <c r="C51">
-        <v>0.01956377008203751</v>
+        <v>0.001929666281594876</v>
       </c>
       <c r="D51">
-        <v>-0.009537237864197879</v>
+        <v>-0.01475869299672209</v>
       </c>
       <c r="E51">
-        <v>-0.08234587390760127</v>
+        <v>0.008279700810852841</v>
       </c>
       <c r="F51">
-        <v>-0.04626002952740521</v>
+        <v>-0.09982104952775059</v>
       </c>
       <c r="G51">
-        <v>-0.07359442125124196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05042042802419251</v>
+      </c>
+      <c r="H51">
+        <v>-0.04943211852511122</v>
+      </c>
+      <c r="I51">
+        <v>-0.01727156308582613</v>
+      </c>
+      <c r="J51">
+        <v>0.04455446009085282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1414127776421945</v>
+        <v>0.126641675204579</v>
       </c>
       <c r="C53">
-        <v>-0.01616553830272962</v>
+        <v>-0.03720147769069562</v>
       </c>
       <c r="D53">
-        <v>0.04871215083706096</v>
+        <v>0.002556340527428673</v>
       </c>
       <c r="E53">
-        <v>0.04771847755801849</v>
+        <v>0.05174718958378192</v>
       </c>
       <c r="F53">
-        <v>0.0005735284204909857</v>
+        <v>0.04052815763861084</v>
       </c>
       <c r="G53">
-        <v>-0.04017011082282941</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02211964410795175</v>
+      </c>
+      <c r="H53">
+        <v>0.002422557034693922</v>
+      </c>
+      <c r="I53">
+        <v>-0.03560083814341267</v>
+      </c>
+      <c r="J53">
+        <v>0.03711532634869238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02602035760878735</v>
+        <v>0.02553486514622233</v>
       </c>
       <c r="C54">
-        <v>-0.005897467338649389</v>
+        <v>-0.002841212971931298</v>
       </c>
       <c r="D54">
-        <v>0.02399589513243812</v>
+        <v>0.005919571953703697</v>
       </c>
       <c r="E54">
-        <v>-0.0362320756003389</v>
+        <v>0.02571440960041609</v>
       </c>
       <c r="F54">
-        <v>-0.04886945537747808</v>
+        <v>-0.03707065467555313</v>
       </c>
       <c r="G54">
-        <v>-0.0179060715493854</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05210832525237552</v>
+      </c>
+      <c r="H54">
+        <v>-0.04091420105636168</v>
+      </c>
+      <c r="I54">
+        <v>-0.0272654297894681</v>
+      </c>
+      <c r="J54">
+        <v>-0.004036578806869869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1008360377028842</v>
+        <v>0.1000392835849619</v>
       </c>
       <c r="C55">
-        <v>0.0004100126764646118</v>
+        <v>-0.01947897911431419</v>
       </c>
       <c r="D55">
-        <v>0.03816774599593807</v>
+        <v>0.01579756195181196</v>
       </c>
       <c r="E55">
-        <v>0.008665095653106792</v>
+        <v>0.03339989508900233</v>
       </c>
       <c r="F55">
-        <v>0.03221233593743638</v>
+        <v>0.02721522196262551</v>
       </c>
       <c r="G55">
-        <v>0.004370907514411272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.006429280314982164</v>
+      </c>
+      <c r="H55">
+        <v>-0.01128689495173955</v>
+      </c>
+      <c r="I55">
+        <v>-0.01905170022719247</v>
+      </c>
+      <c r="J55">
+        <v>0.0313620918648734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1767323704994898</v>
+        <v>0.1671396740443927</v>
       </c>
       <c r="C56">
-        <v>0.006657126499435595</v>
+        <v>-0.01646102018065359</v>
       </c>
       <c r="D56">
-        <v>0.09182976004864296</v>
+        <v>0.002764731767518247</v>
       </c>
       <c r="E56">
-        <v>0.09734302621389858</v>
+        <v>0.08768814406745259</v>
       </c>
       <c r="F56">
-        <v>0.07250319998962498</v>
+        <v>0.08429623664983039</v>
       </c>
       <c r="G56">
-        <v>-0.007871685297386376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02830661555054351</v>
+      </c>
+      <c r="H56">
+        <v>0.0443042487009649</v>
+      </c>
+      <c r="I56">
+        <v>-0.02890832787223364</v>
+      </c>
+      <c r="J56">
+        <v>0.04190340663057582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.08886226033325667</v>
+        <v>0.0671385711289299</v>
       </c>
       <c r="C57">
-        <v>-0.03359174748507672</v>
+        <v>-0.03746182200334483</v>
       </c>
       <c r="D57">
-        <v>0.02981367197169804</v>
+        <v>-0.007913449870765886</v>
       </c>
       <c r="E57">
-        <v>-0.03975376083520393</v>
+        <v>0.01066147212438414</v>
       </c>
       <c r="F57">
-        <v>-0.03143711072135956</v>
+        <v>-0.06343417706614385</v>
       </c>
       <c r="G57">
-        <v>-0.04458241006440069</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0265326258035846</v>
+      </c>
+      <c r="H57">
+        <v>-0.02761438143063914</v>
+      </c>
+      <c r="I57">
+        <v>0.01146139491314348</v>
+      </c>
+      <c r="J57">
+        <v>0.03585598630668913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1830605591684502</v>
+        <v>0.2068214233943879</v>
       </c>
       <c r="C58">
-        <v>-0.03540993247380541</v>
+        <v>-0.114314485155712</v>
       </c>
       <c r="D58">
-        <v>-0.02361047132529115</v>
+        <v>-0.05903272059932244</v>
       </c>
       <c r="E58">
-        <v>-0.1173848229768283</v>
+        <v>-0.007924163989827886</v>
       </c>
       <c r="F58">
-        <v>0.07395627896877932</v>
+        <v>-0.2336019701124922</v>
       </c>
       <c r="G58">
-        <v>-0.007954274933108267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1648258268129586</v>
+      </c>
+      <c r="H58">
+        <v>-0.3642068232339115</v>
+      </c>
+      <c r="I58">
+        <v>0.1483024635095586</v>
+      </c>
+      <c r="J58">
+        <v>-0.7639257795551017</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01860028648160458</v>
+        <v>0.04201033724162904</v>
       </c>
       <c r="C59">
-        <v>0.19386459852813</v>
+        <v>0.1807819862906854</v>
       </c>
       <c r="D59">
-        <v>0.003986902910750718</v>
+        <v>-0.07937674919694418</v>
       </c>
       <c r="E59">
-        <v>-0.06503919304260314</v>
+        <v>-0.005282719032296552</v>
       </c>
       <c r="F59">
-        <v>-0.01787048683752336</v>
+        <v>-0.07109930257196415</v>
       </c>
       <c r="G59">
-        <v>-0.00563241526900305</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.00294555035233121</v>
+      </c>
+      <c r="H59">
+        <v>0.0202211522792718</v>
+      </c>
+      <c r="I59">
+        <v>-0.06321544187842651</v>
+      </c>
+      <c r="J59">
+        <v>-0.009572524764747884</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.192307668870883</v>
+        <v>0.1840741564634891</v>
       </c>
       <c r="C60">
-        <v>0.08622597658927025</v>
+        <v>0.03306596717173443</v>
       </c>
       <c r="D60">
-        <v>0.002428049136081189</v>
+        <v>-0.06552506746322753</v>
       </c>
       <c r="E60">
-        <v>-0.185925420046941</v>
+        <v>0.01078438879288299</v>
       </c>
       <c r="F60">
-        <v>-0.04460624907081499</v>
+        <v>-0.2105763615019779</v>
       </c>
       <c r="G60">
-        <v>-0.02700532579103699</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0678296529603581</v>
+      </c>
+      <c r="H60">
+        <v>0.2736619544434656</v>
+      </c>
+      <c r="I60">
+        <v>0.1004702900280182</v>
+      </c>
+      <c r="J60">
+        <v>0.02245864940319738</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04586870909188724</v>
+        <v>0.03790881940947539</v>
       </c>
       <c r="C61">
-        <v>-0.009714679159690418</v>
+        <v>-0.0241764123547248</v>
       </c>
       <c r="D61">
-        <v>-0.001059821302172209</v>
+        <v>0.008098600191745697</v>
       </c>
       <c r="E61">
-        <v>-0.03981859397074943</v>
+        <v>0.005491162165188945</v>
       </c>
       <c r="F61">
-        <v>-0.005899144740706067</v>
+        <v>-0.0402654044671622</v>
       </c>
       <c r="G61">
-        <v>-0.008266257546378579</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0108134341009093</v>
+      </c>
+      <c r="H61">
+        <v>0.002603005117849993</v>
+      </c>
+      <c r="I61">
+        <v>0.03878469735875008</v>
+      </c>
+      <c r="J61">
+        <v>0.02432643823698686</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04295609147058296</v>
+        <v>0.03102624844329055</v>
       </c>
       <c r="C63">
-        <v>-0.01117368962153385</v>
+        <v>-0.01817261749834505</v>
       </c>
       <c r="D63">
-        <v>0.01698762382285448</v>
+        <v>0.003839439146984598</v>
       </c>
       <c r="E63">
-        <v>-0.04303194189694515</v>
+        <v>0.01280764794997378</v>
       </c>
       <c r="F63">
-        <v>-0.01068056698549454</v>
+        <v>-0.03002394969786752</v>
       </c>
       <c r="G63">
-        <v>-0.03272954160594988</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.011869492606733</v>
+      </c>
+      <c r="H63">
+        <v>-0.04925621824369857</v>
+      </c>
+      <c r="I63">
+        <v>-0.0344340666255742</v>
+      </c>
+      <c r="J63">
+        <v>0.03368329070699803</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.07719816868979865</v>
+        <v>0.05807911939645228</v>
       </c>
       <c r="C64">
-        <v>-0.05551905883912504</v>
+        <v>-0.04135562490788931</v>
       </c>
       <c r="D64">
-        <v>0.06086361922824229</v>
+        <v>0.02775428660764743</v>
       </c>
       <c r="E64">
-        <v>-0.05877958987329093</v>
+        <v>0.04251371105422777</v>
       </c>
       <c r="F64">
-        <v>-0.0556753528987049</v>
+        <v>-0.04963443656040836</v>
       </c>
       <c r="G64">
-        <v>0.01052971116333763</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05415834515621561</v>
+      </c>
+      <c r="H64">
+        <v>0.00750228218314737</v>
+      </c>
+      <c r="I64">
+        <v>-0.03278314899252469</v>
+      </c>
+      <c r="J64">
+        <v>0.1050155244015408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01944475889243143</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.009236260501449631</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.009823006872130132</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00633615796585575</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0001564220056747184</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0212899144309684</v>
+      </c>
+      <c r="H65">
+        <v>0.004784764772368642</v>
+      </c>
+      <c r="I65">
+        <v>0.01495562392368643</v>
+      </c>
+      <c r="J65">
+        <v>0.00271689952054973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.08924650405515966</v>
+        <v>0.06831202096367825</v>
       </c>
       <c r="C66">
-        <v>-0.0332145977890193</v>
+        <v>-0.05458364518814419</v>
       </c>
       <c r="D66">
-        <v>0.0338831016936059</v>
+        <v>0.002466614836761275</v>
       </c>
       <c r="E66">
-        <v>-0.08141911888195909</v>
+        <v>0.04530988618423443</v>
       </c>
       <c r="F66">
-        <v>-0.0368030719237735</v>
+        <v>-0.06949399323217452</v>
       </c>
       <c r="G66">
-        <v>-0.02016093690045691</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0157498889709717</v>
+      </c>
+      <c r="H66">
+        <v>-0.0007100879743521254</v>
+      </c>
+      <c r="I66">
+        <v>0.03520574210150465</v>
+      </c>
+      <c r="J66">
+        <v>0.07497932127528391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06073358800990528</v>
+        <v>0.04763214848757795</v>
       </c>
       <c r="C67">
-        <v>0.008863432578693334</v>
+        <v>0.003021466059778191</v>
       </c>
       <c r="D67">
-        <v>0.01435955265553391</v>
+        <v>-0.004132713264941664</v>
       </c>
       <c r="E67">
-        <v>-0.02284427963838715</v>
+        <v>0.0094458742618599</v>
       </c>
       <c r="F67">
-        <v>-0.007627827706631612</v>
+        <v>-0.03883138043398165</v>
       </c>
       <c r="G67">
-        <v>0.02631118740130309</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03494216049048119</v>
+      </c>
+      <c r="H67">
+        <v>0.008370390234460101</v>
+      </c>
+      <c r="I67">
+        <v>0.03950736862644658</v>
+      </c>
+      <c r="J67">
+        <v>0.01044989901486766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.02639599229485485</v>
+        <v>0.05094277280277308</v>
       </c>
       <c r="C68">
-        <v>0.2419756247567076</v>
+        <v>0.2178988999029629</v>
       </c>
       <c r="D68">
-        <v>-0.01679644466369056</v>
+        <v>-0.09066672320066614</v>
       </c>
       <c r="E68">
-        <v>-0.05004165772043365</v>
+        <v>-0.01784066218782675</v>
       </c>
       <c r="F68">
-        <v>-0.01538585046510706</v>
+        <v>-0.05516935546193769</v>
       </c>
       <c r="G68">
-        <v>-0.03230261776799182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.003552248222709098</v>
+      </c>
+      <c r="H68">
+        <v>0.01752563742885757</v>
+      </c>
+      <c r="I68">
+        <v>-0.1644922862198383</v>
+      </c>
+      <c r="J68">
+        <v>-0.06721120112916876</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06984515464617184</v>
+        <v>0.07217057709143537</v>
       </c>
       <c r="C69">
-        <v>-0.01937219208550486</v>
+        <v>-0.02224841279561798</v>
       </c>
       <c r="D69">
-        <v>0.02585154846844756</v>
+        <v>-0.0004478382409418423</v>
       </c>
       <c r="E69">
-        <v>0.01660911028660238</v>
+        <v>0.03086188647261842</v>
       </c>
       <c r="F69">
-        <v>-0.002878997265408884</v>
+        <v>0.001358799599058172</v>
       </c>
       <c r="G69">
-        <v>-0.03174312867957103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02719330184259847</v>
+      </c>
+      <c r="H69">
+        <v>-0.02567058228826768</v>
+      </c>
+      <c r="I69">
+        <v>0.00310897828811549</v>
+      </c>
+      <c r="J69">
+        <v>0.03005313714809533</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.02101367903547543</v>
+        <v>0.05156724104598066</v>
       </c>
       <c r="C71">
-        <v>0.2778044690177202</v>
+        <v>0.2364205041478826</v>
       </c>
       <c r="D71">
-        <v>-0.02247823461469593</v>
+        <v>-0.1033610161128838</v>
       </c>
       <c r="E71">
-        <v>-0.08124618364059599</v>
+        <v>-0.03973815763764635</v>
       </c>
       <c r="F71">
-        <v>-0.01723286785617236</v>
+        <v>-0.07868195416993704</v>
       </c>
       <c r="G71">
-        <v>-0.04711708856692274</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01294260668443688</v>
+      </c>
+      <c r="H71">
+        <v>0.02645349861622389</v>
+      </c>
+      <c r="I71">
+        <v>-0.1317953665781477</v>
+      </c>
+      <c r="J71">
+        <v>-0.02978462015109139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1188408775799562</v>
+        <v>0.1246659500942173</v>
       </c>
       <c r="C72">
-        <v>-0.001876223861153501</v>
+        <v>-0.03125946495253726</v>
       </c>
       <c r="D72">
-        <v>0.04844491908367612</v>
+        <v>0.0002016721503032252</v>
       </c>
       <c r="E72">
-        <v>-0.0905946463821907</v>
+        <v>0.06200205796966977</v>
       </c>
       <c r="F72">
-        <v>0.01943891410235716</v>
+        <v>-0.08278514465007278</v>
       </c>
       <c r="G72">
-        <v>0.01393166864095222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03847148379455397</v>
+      </c>
+      <c r="H72">
+        <v>0.01670868958150241</v>
+      </c>
+      <c r="I72">
+        <v>0.06870621389978145</v>
+      </c>
+      <c r="J72">
+        <v>-0.08931539645461987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2982205558774286</v>
+        <v>0.2681228695572585</v>
       </c>
       <c r="C73">
-        <v>0.1526457653196671</v>
+        <v>0.05022958631396547</v>
       </c>
       <c r="D73">
-        <v>-0.04827816710150225</v>
+        <v>-0.1159659879429209</v>
       </c>
       <c r="E73">
-        <v>-0.3163992756173532</v>
+        <v>-0.02718167217478631</v>
       </c>
       <c r="F73">
-        <v>-0.01845693716769965</v>
+        <v>-0.3120269861846162</v>
       </c>
       <c r="G73">
-        <v>-0.01213821588408193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1745622765870189</v>
+      </c>
+      <c r="H73">
+        <v>0.4690978877933544</v>
+      </c>
+      <c r="I73">
+        <v>0.2882939199307014</v>
+      </c>
+      <c r="J73">
+        <v>0.03312780525526546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1607925964454412</v>
+        <v>0.1521251268199237</v>
       </c>
       <c r="C74">
-        <v>-0.002382197656162084</v>
+        <v>-0.02764023565911424</v>
       </c>
       <c r="D74">
-        <v>0.0446912291544488</v>
+        <v>-0.008754102250262042</v>
       </c>
       <c r="E74">
-        <v>0.0279530331356139</v>
+        <v>0.04943158677938973</v>
       </c>
       <c r="F74">
-        <v>0.05979925224658485</v>
+        <v>0.05503232196947231</v>
       </c>
       <c r="G74">
-        <v>-0.06288849618382573</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01949367296274139</v>
+      </c>
+      <c r="H74">
+        <v>0.03121287631477949</v>
+      </c>
+      <c r="I74">
+        <v>-0.01910446609637847</v>
+      </c>
+      <c r="J74">
+        <v>0.08995120944949352</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2319597809807451</v>
+        <v>0.2418432215290302</v>
       </c>
       <c r="C75">
-        <v>-0.0007731663898147763</v>
+        <v>-0.02990124861470932</v>
       </c>
       <c r="D75">
-        <v>0.07265276972523911</v>
+        <v>-0.02468357557776172</v>
       </c>
       <c r="E75">
-        <v>0.1240650633117417</v>
+        <v>0.1051909194626985</v>
       </c>
       <c r="F75">
-        <v>0.02649771924801704</v>
+        <v>0.1424362845663887</v>
       </c>
       <c r="G75">
-        <v>-0.04902984117412417</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004790755513928761</v>
+      </c>
+      <c r="H75">
+        <v>0.018952165078706</v>
+      </c>
+      <c r="I75">
+        <v>-0.08409097264562583</v>
+      </c>
+      <c r="J75">
+        <v>0.01752944300019811</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2449035901477998</v>
+        <v>0.2687055624604885</v>
       </c>
       <c r="C76">
-        <v>0.005182335338544362</v>
+        <v>-0.01569138573220852</v>
       </c>
       <c r="D76">
-        <v>0.1186334291719429</v>
+        <v>0.01222768520159162</v>
       </c>
       <c r="E76">
-        <v>0.1233230856049216</v>
+        <v>0.1299500846338889</v>
       </c>
       <c r="F76">
-        <v>0.06797063142464413</v>
+        <v>0.1854454435183575</v>
       </c>
       <c r="G76">
-        <v>-0.03546265145621594</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05295056122153292</v>
+      </c>
+      <c r="H76">
+        <v>0.04415845620099371</v>
+      </c>
+      <c r="I76">
+        <v>-0.04378665783128895</v>
+      </c>
+      <c r="J76">
+        <v>0.07060377092255624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1344020873766539</v>
+        <v>0.1267940571985183</v>
       </c>
       <c r="C77">
-        <v>-0.05102138503039389</v>
+        <v>-0.06186707088145028</v>
       </c>
       <c r="D77">
-        <v>-0.04465180413585793</v>
+        <v>0.009887209790994238</v>
       </c>
       <c r="E77">
-        <v>-0.1524641836779627</v>
+        <v>-0.03356805433108579</v>
       </c>
       <c r="F77">
-        <v>-0.03638367082692866</v>
+        <v>-0.161892102452861</v>
       </c>
       <c r="G77">
-        <v>0.06818052105286805</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.005307478697959469</v>
+      </c>
+      <c r="H77">
+        <v>-0.2327353201505588</v>
+      </c>
+      <c r="I77">
+        <v>-0.2433382961995263</v>
+      </c>
+      <c r="J77">
+        <v>0.1011689625308939</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.0858113456771976</v>
+        <v>0.07846234226786027</v>
       </c>
       <c r="C78">
-        <v>-0.05268128884360738</v>
+        <v>-0.07084117033553364</v>
       </c>
       <c r="D78">
-        <v>-0.01528671473235002</v>
+        <v>0.02811745571986991</v>
       </c>
       <c r="E78">
-        <v>-0.05323328485586215</v>
+        <v>0.007588736798152492</v>
       </c>
       <c r="F78">
-        <v>-0.007119715903429185</v>
+        <v>-0.07325033597645016</v>
       </c>
       <c r="G78">
-        <v>-0.008576430149247924</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01054454792666447</v>
+      </c>
+      <c r="H78">
+        <v>-0.02151192098782366</v>
+      </c>
+      <c r="I78">
+        <v>-0.03035188939714828</v>
+      </c>
+      <c r="J78">
+        <v>0.04814537710862549</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.0751058080635669</v>
+        <v>0.1506243352802296</v>
       </c>
       <c r="C80">
-        <v>-0.02085154917460866</v>
+        <v>0.3490315908734917</v>
       </c>
       <c r="D80">
-        <v>-0.03545164072686361</v>
+        <v>0.90881343135371</v>
       </c>
       <c r="E80">
-        <v>0.01086645964328185</v>
+        <v>-0.05090546582365981</v>
       </c>
       <c r="F80">
-        <v>0.1230166250042667</v>
+        <v>-0.04676597078375744</v>
       </c>
       <c r="G80">
-        <v>0.9258794746097224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04526862293058758</v>
+      </c>
+      <c r="H80">
+        <v>0.05376770182322724</v>
+      </c>
+      <c r="I80">
+        <v>0.02832870465657546</v>
+      </c>
+      <c r="J80">
+        <v>-0.09827511722868133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1591672133433207</v>
+        <v>0.1794084688518996</v>
       </c>
       <c r="C81">
-        <v>0.004399020569883527</v>
+        <v>-0.009152654974528569</v>
       </c>
       <c r="D81">
-        <v>0.06722383418113737</v>
+        <v>-0.00787759884118483</v>
       </c>
       <c r="E81">
-        <v>0.1588962704579833</v>
+        <v>0.08489671807117469</v>
       </c>
       <c r="F81">
-        <v>0.08124749198055828</v>
+        <v>0.1581244853640282</v>
       </c>
       <c r="G81">
-        <v>-0.04216150322701716</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.03000750384646509</v>
+      </c>
+      <c r="H81">
+        <v>0.01142987645862264</v>
+      </c>
+      <c r="I81">
+        <v>-0.05676066531528813</v>
+      </c>
+      <c r="J81">
+        <v>0.0007215096619825502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09355077595592896</v>
+        <v>0.06888073987326972</v>
       </c>
       <c r="C83">
-        <v>-0.06053801117313099</v>
+        <v>-0.05200443013874891</v>
       </c>
       <c r="D83">
-        <v>-0.06994350486045137</v>
+        <v>0.001840680040662408</v>
       </c>
       <c r="E83">
-        <v>-0.01226852159220915</v>
+        <v>-0.03704688939131224</v>
       </c>
       <c r="F83">
-        <v>-0.06079351553670315</v>
+        <v>-0.04569854985236175</v>
       </c>
       <c r="G83">
-        <v>-0.02905542289189562</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05890320368282483</v>
+      </c>
+      <c r="H83">
+        <v>-0.02250244677033211</v>
+      </c>
+      <c r="I83">
+        <v>-0.01962703467098939</v>
+      </c>
+      <c r="J83">
+        <v>0.07822498043333494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2374692964651107</v>
+        <v>0.2520230963730336</v>
       </c>
       <c r="C85">
-        <v>-0.05081912135354504</v>
+        <v>-0.05350375377267123</v>
       </c>
       <c r="D85">
-        <v>0.0648321241609883</v>
+        <v>0.006558603497657001</v>
       </c>
       <c r="E85">
-        <v>0.1625861916235523</v>
+        <v>0.09615280979653941</v>
       </c>
       <c r="F85">
-        <v>0.05852080612334647</v>
+        <v>0.1874154055337819</v>
       </c>
       <c r="G85">
-        <v>-0.007787546200906311</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.008486116681281106</v>
+      </c>
+      <c r="H85">
+        <v>-0.02194055364333489</v>
+      </c>
+      <c r="I85">
+        <v>-0.04813416525764749</v>
+      </c>
+      <c r="J85">
+        <v>0.07380245116321886</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04102161556261451</v>
+        <v>0.02567894194947987</v>
       </c>
       <c r="C86">
-        <v>-0.05772489002697897</v>
+        <v>-0.06116974690258337</v>
       </c>
       <c r="D86">
-        <v>0.01632399208360356</v>
+        <v>0.02134391444241262</v>
       </c>
       <c r="E86">
-        <v>-0.06883822020192759</v>
+        <v>0.01053886186298675</v>
       </c>
       <c r="F86">
-        <v>0.005613242204344637</v>
+        <v>-0.06804040963674682</v>
       </c>
       <c r="G86">
-        <v>-0.01795977855048047</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.00672124492017124</v>
+      </c>
+      <c r="H86">
+        <v>-0.06604991105428128</v>
+      </c>
+      <c r="I86">
+        <v>-0.02254503612892559</v>
+      </c>
+      <c r="J86">
+        <v>0.04029790264942149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02919009586528333</v>
+        <v>0.03395624077058797</v>
       </c>
       <c r="C87">
-        <v>0.04638059408211614</v>
+        <v>0.007457817038404884</v>
       </c>
       <c r="D87">
-        <v>4.266095832105224e-05</v>
+        <v>-0.00574429129819509</v>
       </c>
       <c r="E87">
-        <v>-0.09438200147740958</v>
+        <v>0.005154583141668308</v>
       </c>
       <c r="F87">
-        <v>0.02829986943322035</v>
+        <v>-0.1004801153888875</v>
       </c>
       <c r="G87">
-        <v>-0.0201908713732898</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02654809737293102</v>
+      </c>
+      <c r="H87">
+        <v>-0.0148490441080507</v>
+      </c>
+      <c r="I87">
+        <v>0.01401532207380174</v>
+      </c>
+      <c r="J87">
+        <v>0.02057065360293719</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.0404001671143573</v>
+        <v>0.02885929710677545</v>
       </c>
       <c r="C88">
-        <v>-0.03334228674707974</v>
+        <v>-0.018387008323028</v>
       </c>
       <c r="D88">
-        <v>0.005090003274416209</v>
+        <v>0.01673242975952698</v>
       </c>
       <c r="E88">
-        <v>0.01168797811197456</v>
+        <v>0.009417031203704433</v>
       </c>
       <c r="F88">
-        <v>0.01840772771850685</v>
+        <v>0.01354174140079203</v>
       </c>
       <c r="G88">
-        <v>-0.006573572337042055</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03663889443869143</v>
+      </c>
+      <c r="H88">
+        <v>-0.03832022907006925</v>
+      </c>
+      <c r="I88">
+        <v>0.02298803622170786</v>
+      </c>
+      <c r="J88">
+        <v>0.02304894138480578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02439477245567439</v>
+        <v>0.07253635652783866</v>
       </c>
       <c r="C89">
-        <v>0.4115274664019279</v>
+        <v>0.3599751694489752</v>
       </c>
       <c r="D89">
-        <v>-0.09797650772211285</v>
+        <v>-0.1656476925853925</v>
       </c>
       <c r="E89">
-        <v>-0.009818386863769648</v>
+        <v>-0.0580004636460601</v>
       </c>
       <c r="F89">
-        <v>-0.02902133538398802</v>
+        <v>-0.03383045378510577</v>
       </c>
       <c r="G89">
-        <v>-0.03540877542135867</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03549634435364961</v>
+      </c>
+      <c r="H89">
+        <v>-0.05160692310660616</v>
+      </c>
+      <c r="I89">
+        <v>-0.2616981715824913</v>
+      </c>
+      <c r="J89">
+        <v>-0.06209278138292643</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.02294627909762325</v>
+        <v>0.0512325547243527</v>
       </c>
       <c r="C90">
-        <v>0.3076744637028143</v>
+        <v>0.309071677985425</v>
       </c>
       <c r="D90">
-        <v>-0.04724287631664489</v>
+        <v>-0.1242237912428836</v>
       </c>
       <c r="E90">
-        <v>-0.04903385739142512</v>
+        <v>-0.04369958954375421</v>
       </c>
       <c r="F90">
-        <v>-0.02990600789861679</v>
+        <v>-0.03573896947961014</v>
       </c>
       <c r="G90">
-        <v>-0.05696173078100714</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01874364761055861</v>
+      </c>
+      <c r="H90">
+        <v>-0.0107035726061702</v>
+      </c>
+      <c r="I90">
+        <v>-0.2223937615234759</v>
+      </c>
+      <c r="J90">
+        <v>-0.03903129259694624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2689081609589843</v>
+        <v>0.2922890596211469</v>
       </c>
       <c r="C91">
-        <v>-0.03588006246797051</v>
+        <v>-0.04802548059431749</v>
       </c>
       <c r="D91">
-        <v>0.07603923513378226</v>
+        <v>-0.005848888273359471</v>
       </c>
       <c r="E91">
-        <v>0.2673373204347042</v>
+        <v>0.09043575346018663</v>
       </c>
       <c r="F91">
-        <v>0.0623169134777661</v>
+        <v>0.2806998507589501</v>
       </c>
       <c r="G91">
-        <v>0.03649311766996647</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02386814450064258</v>
+      </c>
+      <c r="H91">
+        <v>0.01230002462959678</v>
+      </c>
+      <c r="I91">
+        <v>-0.1025563518136375</v>
+      </c>
+      <c r="J91">
+        <v>0.04678394451576106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.05498333561125297</v>
+        <v>0.114845802955105</v>
       </c>
       <c r="C92">
-        <v>0.4114839024325018</v>
+        <v>0.4092493861186636</v>
       </c>
       <c r="D92">
-        <v>-0.154867656844641</v>
+        <v>-0.1403953952933592</v>
       </c>
       <c r="E92">
-        <v>0.08857668278204872</v>
+        <v>-0.07386945861958435</v>
       </c>
       <c r="F92">
-        <v>0.0565151086824834</v>
+        <v>0.1270522828382303</v>
       </c>
       <c r="G92">
-        <v>0.187598842394223</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.07975701409434692</v>
+      </c>
+      <c r="H92">
+        <v>-0.4411542755156923</v>
+      </c>
+      <c r="I92">
+        <v>0.6827849810062648</v>
+      </c>
+      <c r="J92">
+        <v>0.2858981141899209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01303898915410411</v>
+        <v>0.05873501897199733</v>
       </c>
       <c r="C93">
-        <v>0.3776564039360391</v>
+        <v>0.3705496080251843</v>
       </c>
       <c r="D93">
-        <v>-0.07461867649790956</v>
+        <v>-0.1643697156059708</v>
       </c>
       <c r="E93">
-        <v>0.02303210949142522</v>
+        <v>-0.07642880914512767</v>
       </c>
       <c r="F93">
-        <v>-0.004197647781071259</v>
+        <v>-0.00361157671391109</v>
       </c>
       <c r="G93">
-        <v>0.02473030152362253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03237720822550463</v>
+      </c>
+      <c r="H93">
+        <v>0.02171606882637747</v>
+      </c>
+      <c r="I93">
+        <v>-0.162091288896989</v>
+      </c>
+      <c r="J93">
+        <v>-0.06294493539140279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2842198348595053</v>
+        <v>0.3041223623832675</v>
       </c>
       <c r="C94">
-        <v>0.07312398996278145</v>
+        <v>-0.002559361786845711</v>
       </c>
       <c r="D94">
-        <v>0.0635409963128433</v>
+        <v>-0.04367640462100496</v>
       </c>
       <c r="E94">
-        <v>0.3787095789455789</v>
+        <v>0.1305619028577554</v>
       </c>
       <c r="F94">
-        <v>0.4153857544597879</v>
+        <v>0.3418382632004687</v>
       </c>
       <c r="G94">
-        <v>-0.09503125763080156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2165380744299644</v>
+      </c>
+      <c r="H94">
+        <v>-0.1209029724071596</v>
+      </c>
+      <c r="I94">
+        <v>-0.03088804023440189</v>
+      </c>
+      <c r="J94">
+        <v>-0.1512085587800153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1884532115485238</v>
+        <v>0.133588311889869</v>
       </c>
       <c r="C95">
-        <v>0.01235340619829939</v>
+        <v>-0.06542832693145566</v>
       </c>
       <c r="D95">
-        <v>0.0127244151063888</v>
+        <v>-0.08100055769583156</v>
       </c>
       <c r="E95">
-        <v>0.3643609365385013</v>
+        <v>0.03464420638299489</v>
       </c>
       <c r="F95">
-        <v>-0.8451469929017522</v>
+        <v>0.08299026384088422</v>
       </c>
       <c r="G95">
-        <v>0.0976770192091725</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8960575585320696</v>
+      </c>
+      <c r="H95">
+        <v>0.1658370994333351</v>
+      </c>
+      <c r="I95">
+        <v>0.09305755387927206</v>
+      </c>
+      <c r="J95">
+        <v>-0.2575243639963476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2284621294774435</v>
+        <v>0.2061969885593499</v>
       </c>
       <c r="C98">
-        <v>0.1047410669040356</v>
+        <v>0.03923139022463142</v>
       </c>
       <c r="D98">
-        <v>-0.0347304053218465</v>
+        <v>-0.08252645711947632</v>
       </c>
       <c r="E98">
-        <v>-0.07807853167713082</v>
+        <v>-0.02610164847024391</v>
       </c>
       <c r="F98">
-        <v>-0.0365212104977344</v>
+        <v>-0.1626641698560113</v>
       </c>
       <c r="G98">
-        <v>-0.06017725507464926</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08106839257294637</v>
+      </c>
+      <c r="H98">
+        <v>0.3199898029488502</v>
+      </c>
+      <c r="I98">
+        <v>0.160080319639667</v>
+      </c>
+      <c r="J98">
+        <v>-0.03747032536743349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02311433498617644</v>
+        <v>0.01601137982301125</v>
       </c>
       <c r="C101">
-        <v>-0.02525617940143107</v>
+        <v>-0.02848217706916158</v>
       </c>
       <c r="D101">
-        <v>0.03015681125886195</v>
+        <v>0.01550902801273126</v>
       </c>
       <c r="E101">
-        <v>-0.03522355934469251</v>
+        <v>0.03178136649472143</v>
       </c>
       <c r="F101">
-        <v>-0.01421970526339209</v>
+        <v>-0.06523246243049481</v>
       </c>
       <c r="G101">
-        <v>-0.02160231844700516</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01703731793704385</v>
+      </c>
+      <c r="H101">
+        <v>-0.1088874716315362</v>
+      </c>
+      <c r="I101">
+        <v>0.04792700277975653</v>
+      </c>
+      <c r="J101">
+        <v>-0.1116189430766507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1171364112228707</v>
+        <v>0.1222169113254725</v>
       </c>
       <c r="C102">
-        <v>-0.02107483355523931</v>
+        <v>-0.02259383285661455</v>
       </c>
       <c r="D102">
-        <v>0.04518563203448075</v>
+        <v>0.008598462506353204</v>
       </c>
       <c r="E102">
-        <v>0.08768569915543625</v>
+        <v>0.05624945135128482</v>
       </c>
       <c r="F102">
-        <v>0.001131516316292754</v>
+        <v>0.09981059809546183</v>
       </c>
       <c r="G102">
-        <v>0.005891439836610719</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01517911992377251</v>
+      </c>
+      <c r="H102">
+        <v>0.01947408319082592</v>
+      </c>
+      <c r="I102">
+        <v>-0.05359238996437824</v>
+      </c>
+      <c r="J102">
+        <v>0.0442356742395512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01526283141934356</v>
+        <v>0.03099591915038708</v>
       </c>
       <c r="C103">
-        <v>-0.0009791250775967148</v>
+        <v>-0.003267596128888378</v>
       </c>
       <c r="D103">
-        <v>0.01341860017392956</v>
+        <v>0.009060621729676656</v>
       </c>
       <c r="E103">
-        <v>0.02750863566055745</v>
+        <v>0.02056508349382691</v>
       </c>
       <c r="F103">
-        <v>0.00803615977998391</v>
+        <v>0.02796657504401297</v>
       </c>
       <c r="G103">
-        <v>-0.01068736986554685</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01290540846021406</v>
+      </c>
+      <c r="H103">
+        <v>-0.0154816422095307</v>
+      </c>
+      <c r="I103">
+        <v>-0.02951925107647045</v>
+      </c>
+      <c r="J103">
+        <v>0.005900409967618168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
